--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1953DA-08FE-41C3-9378-64D3D20246FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE3AF3-99FF-420A-81B8-6A56B8F98A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -572,7 +572,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -793,7 +793,7 @@
   <dimension ref="A1:AL1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1874,9 +1874,15 @@
       <c r="F21" s="13">
         <v>0</v>
       </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1</v>
+      </c>
       <c r="AL21" s="1">
         <f t="shared" ref="AL21:AL32" si="0">SUM(B21:AK21)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1898,9 +1904,15 @@
       <c r="F22" s="13">
         <v>1</v>
       </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
       <c r="AL22" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1922,9 +1934,15 @@
       <c r="F23" s="13">
         <v>0</v>
       </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
       <c r="AL23" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1947,9 +1965,15 @@
       <c r="F24" s="13">
         <v>0</v>
       </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1</v>
+      </c>
       <c r="AL24" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1971,9 +1995,15 @@
       <c r="F25" s="13">
         <v>1</v>
       </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1</v>
+      </c>
       <c r="AL25" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1995,9 +2025,15 @@
       <c r="F26" s="13">
         <v>1</v>
       </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>1</v>
+      </c>
       <c r="AL26" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2019,9 +2055,15 @@
       <c r="F27" s="13">
         <v>1</v>
       </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
       <c r="AL27" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2043,9 +2085,15 @@
       <c r="F28" s="13">
         <v>3</v>
       </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>1</v>
+      </c>
       <c r="AL28" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2067,9 +2115,15 @@
       <c r="F29" s="13">
         <v>0</v>
       </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
       <c r="AL29" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2089,11 +2143,17 @@
         <v>1</v>
       </c>
       <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
         <v>3</v>
+      </c>
+      <c r="H30" s="13">
+        <v>1</v>
       </c>
       <c r="AL30" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2115,9 +2175,15 @@
       <c r="F31" s="13">
         <v>0</v>
       </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>3</v>
+      </c>
       <c r="AL31" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2139,9 +2205,15 @@
       <c r="F32" s="13">
         <v>0</v>
       </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
       <c r="AL32" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DE3AF3-99FF-420A-81B8-6A56B8F98A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24917862-3E7A-4951-958C-DE7F0AF350B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,15 +28,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bHMbOq6GzhuYihs+g/6CluYYUWyuUYpVJaYNZJeUAq0="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="139">
   <si>
     <t>Mecz 1</t>
   </si>
@@ -543,41 +540,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{73A672DC-CCFB-4661-9B5B-34D34EBDDA54}"/>
+    <cellStyle name="Normalny 3" xfId="2" xr:uid="{E7B5AF29-2CB2-4F12-BADE-018F61C6AB3D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -792,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -993,751 +996,871 @@
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="7"/>
+      <c r="I3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="5"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="7"/>
+      <c r="I4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
-      <c r="AK5" s="6"/>
-      <c r="AL5" s="7"/>
+      <c r="I5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="5"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="7"/>
+      <c r="I6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="5"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="6"/>
-      <c r="AL7" s="7"/>
+      <c r="I7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="5"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="5"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="6"/>
-      <c r="AL9" s="7"/>
+      <c r="I9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="5"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="6"/>
-      <c r="AG10" s="6"/>
-      <c r="AH10" s="6"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="7"/>
+      <c r="I10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="5"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="6"/>
-      <c r="AG11" s="6"/>
-      <c r="AH11" s="6"/>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="7"/>
+      <c r="I11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="5"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
-      <c r="AD12" s="6"/>
-      <c r="AE12" s="6"/>
-      <c r="AF12" s="6"/>
-      <c r="AG12" s="6"/>
-      <c r="AH12" s="6"/>
-      <c r="AI12" s="6"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="7"/>
+      <c r="I12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="5"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="7"/>
+      <c r="I13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="5"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="6"/>
-      <c r="AH14" s="6"/>
-      <c r="AI14" s="6"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="7"/>
+      <c r="I14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="5"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="6"/>
-      <c r="AG15" s="6"/>
-      <c r="AH15" s="6"/>
-      <c r="AI15" s="6"/>
-      <c r="AJ15" s="6"/>
-      <c r="AK15" s="6"/>
-      <c r="AL15" s="7"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="5"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-      <c r="AK16" s="7"/>
-      <c r="AL16" s="7"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="5"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1859,16 +1982,16 @@
       <c r="A21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9">
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="13">
@@ -1878,27 +2001,42 @@
         <v>0</v>
       </c>
       <c r="H21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <v>1</v>
+      </c>
+      <c r="L21" s="15">
+        <v>1</v>
+      </c>
+      <c r="M21" s="15">
         <v>1</v>
       </c>
       <c r="AL21" s="1">
         <f t="shared" ref="AL21:AL32" si="0">SUM(B21:AK21)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="9">
-        <v>0</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9">
+      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14">
         <v>1</v>
       </c>
       <c r="F22" s="13">
@@ -1909,26 +2047,41 @@
       </c>
       <c r="H22" s="13">
         <v>1</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <v>1</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="B23" s="14">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>1</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14">
         <v>1</v>
       </c>
       <c r="F23" s="13">
@@ -1938,28 +2091,42 @@
         <v>0</v>
       </c>
       <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>1</v>
+      </c>
+      <c r="L23" s="15">
+        <v>1</v>
+      </c>
+      <c r="M23" s="15">
         <v>1</v>
       </c>
       <c r="AL23" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="B24" s="14">
+        <v>1</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="14">
         <v>1</v>
       </c>
       <c r="F24" s="13">
@@ -1969,27 +2136,42 @@
         <v>0</v>
       </c>
       <c r="H24" s="13">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <v>1</v>
+      </c>
+      <c r="L24" s="15">
+        <v>1</v>
+      </c>
+      <c r="M24" s="15">
         <v>1</v>
       </c>
       <c r="AL24" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="B25" s="14">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
         <v>1</v>
       </c>
       <c r="F25" s="13">
@@ -1999,27 +2181,42 @@
         <v>0</v>
       </c>
       <c r="H25" s="13">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>1</v>
+      </c>
+      <c r="L25" s="15">
+        <v>1</v>
+      </c>
+      <c r="M25" s="15">
         <v>1</v>
       </c>
       <c r="AL25" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="B26" s="14">
+        <v>1</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="14">
         <v>3</v>
       </c>
       <c r="F26" s="13">
@@ -2030,26 +2227,41 @@
       </c>
       <c r="H26" s="13">
         <v>1</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <v>1</v>
+      </c>
+      <c r="L26" s="15">
+        <v>1</v>
+      </c>
+      <c r="M26" s="15">
+        <v>3</v>
       </c>
       <c r="AL26" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="B27" s="14">
+        <v>1</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14">
         <v>3</v>
       </c>
       <c r="F27" s="13">
@@ -2059,27 +2271,42 @@
         <v>0</v>
       </c>
       <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>1</v>
+      </c>
+      <c r="L27" s="15">
+        <v>3</v>
+      </c>
+      <c r="M27" s="15">
         <v>1</v>
       </c>
       <c r="AL27" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9">
-        <v>1</v>
-      </c>
-      <c r="D28" s="9">
-        <v>1</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14">
         <v>1</v>
       </c>
       <c r="F28" s="13">
@@ -2091,25 +2318,40 @@
       <c r="H28" s="13">
         <v>1</v>
       </c>
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+      <c r="L28" s="15">
+        <v>1</v>
+      </c>
+      <c r="M28" s="15">
+        <v>1</v>
+      </c>
       <c r="AL28" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9">
-        <v>0</v>
-      </c>
-      <c r="D29" s="9">
-        <v>1</v>
-      </c>
-      <c r="E29" s="9">
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14">
+        <v>0</v>
+      </c>
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14">
         <v>1</v>
       </c>
       <c r="F29" s="13">
@@ -2119,27 +2361,42 @@
         <v>0</v>
       </c>
       <c r="H29" s="13">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <v>1</v>
+      </c>
+      <c r="L29" s="15">
+        <v>1</v>
+      </c>
+      <c r="M29" s="15">
         <v>1</v>
       </c>
       <c r="AL29" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9">
+      <c r="B30" s="14">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14">
+        <v>0</v>
+      </c>
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="14">
         <v>1</v>
       </c>
       <c r="F30" s="13">
@@ -2151,25 +2408,40 @@
       <c r="H30" s="13">
         <v>1</v>
       </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <v>1</v>
+      </c>
+      <c r="L30" s="15">
+        <v>1</v>
+      </c>
+      <c r="M30" s="15">
+        <v>3</v>
+      </c>
       <c r="AL30" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="9">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9">
-        <v>0</v>
-      </c>
-      <c r="D31" s="9">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9">
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="14">
         <v>1</v>
       </c>
       <c r="F31" s="13">
@@ -2181,25 +2453,40 @@
       <c r="H31" s="13">
         <v>3</v>
       </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <v>1</v>
+      </c>
+      <c r="L31" s="15">
+        <v>1</v>
+      </c>
+      <c r="M31" s="15">
+        <v>3</v>
+      </c>
       <c r="AL31" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0</v>
-      </c>
-      <c r="D32" s="9">
-        <v>0</v>
-      </c>
-      <c r="E32" s="9">
+      <c r="B32" s="14">
+        <v>1</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="14">
         <v>1</v>
       </c>
       <c r="F32" s="13">
@@ -2209,22 +2496,37 @@
         <v>0</v>
       </c>
       <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <v>1</v>
+      </c>
+      <c r="L32" s="15">
+        <v>1</v>
+      </c>
+      <c r="M32" s="15">
         <v>1</v>
       </c>
       <c r="AL32" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2238,7 +2540,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2249,7 +2551,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2260,7 +2562,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2271,7 +2573,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -2282,7 +2584,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -2293,7 +2595,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -2304,7 +2606,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -2315,7 +2617,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2326,7 +2628,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -2337,7 +2639,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -2348,7 +2650,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -2359,7 +2661,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="1" t="s">

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24917862-3E7A-4951-958C-DE7F0AF350B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7A0691-1E2A-4100-801E-B30A41D298F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -571,11 +571,10 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -795,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2012,10 +2011,10 @@
       <c r="K21" s="13">
         <v>1</v>
       </c>
-      <c r="L21" s="15">
-        <v>1</v>
-      </c>
-      <c r="M21" s="15">
+      <c r="L21" s="13">
+        <v>1</v>
+      </c>
+      <c r="M21" s="13">
         <v>1</v>
       </c>
       <c r="AL21" s="1">
@@ -2057,10 +2056,10 @@
       <c r="K22" s="13">
         <v>1</v>
       </c>
-      <c r="L22" s="15">
-        <v>0</v>
-      </c>
-      <c r="M22" s="15">
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
         <v>0</v>
       </c>
       <c r="AL22" s="1">
@@ -2102,10 +2101,10 @@
       <c r="K23" s="13">
         <v>1</v>
       </c>
-      <c r="L23" s="15">
-        <v>1</v>
-      </c>
-      <c r="M23" s="15">
+      <c r="L23" s="13">
+        <v>1</v>
+      </c>
+      <c r="M23" s="13">
         <v>1</v>
       </c>
       <c r="AL23" s="1">
@@ -2147,10 +2146,10 @@
       <c r="K24" s="13">
         <v>1</v>
       </c>
-      <c r="L24" s="15">
-        <v>1</v>
-      </c>
-      <c r="M24" s="15">
+      <c r="L24" s="13">
+        <v>1</v>
+      </c>
+      <c r="M24" s="13">
         <v>1</v>
       </c>
       <c r="AL24" s="1">
@@ -2192,10 +2191,10 @@
       <c r="K25" s="13">
         <v>1</v>
       </c>
-      <c r="L25" s="15">
-        <v>1</v>
-      </c>
-      <c r="M25" s="15">
+      <c r="L25" s="13">
+        <v>1</v>
+      </c>
+      <c r="M25" s="13">
         <v>1</v>
       </c>
       <c r="AL25" s="1">
@@ -2237,10 +2236,10 @@
       <c r="K26" s="13">
         <v>1</v>
       </c>
-      <c r="L26" s="15">
-        <v>1</v>
-      </c>
-      <c r="M26" s="15">
+      <c r="L26" s="13">
+        <v>1</v>
+      </c>
+      <c r="M26" s="13">
         <v>3</v>
       </c>
       <c r="AL26" s="1">
@@ -2282,10 +2281,10 @@
       <c r="K27" s="13">
         <v>1</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="13">
         <v>3</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="13">
         <v>1</v>
       </c>
       <c r="AL27" s="1">
@@ -2327,10 +2326,10 @@
       <c r="K28" s="13">
         <v>1</v>
       </c>
-      <c r="L28" s="15">
-        <v>1</v>
-      </c>
-      <c r="M28" s="15">
+      <c r="L28" s="13">
+        <v>1</v>
+      </c>
+      <c r="M28" s="13">
         <v>1</v>
       </c>
       <c r="AL28" s="1">
@@ -2372,10 +2371,10 @@
       <c r="K29" s="13">
         <v>1</v>
       </c>
-      <c r="L29" s="15">
-        <v>1</v>
-      </c>
-      <c r="M29" s="15">
+      <c r="L29" s="13">
+        <v>1</v>
+      </c>
+      <c r="M29" s="13">
         <v>1</v>
       </c>
       <c r="AL29" s="1">
@@ -2417,15 +2416,15 @@
       <c r="K30" s="13">
         <v>1</v>
       </c>
-      <c r="L30" s="15">
-        <v>1</v>
-      </c>
-      <c r="M30" s="15">
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
         <v>3</v>
       </c>
       <c r="AL30" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2462,15 +2461,15 @@
       <c r="K31" s="13">
         <v>1</v>
       </c>
-      <c r="L31" s="15">
-        <v>1</v>
-      </c>
-      <c r="M31" s="15">
+      <c r="L31" s="13">
+        <v>3</v>
+      </c>
+      <c r="M31" s="13">
         <v>3</v>
       </c>
       <c r="AL31" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2507,10 +2506,10 @@
       <c r="K32" s="13">
         <v>1</v>
       </c>
-      <c r="L32" s="15">
-        <v>1</v>
-      </c>
-      <c r="M32" s="15">
+      <c r="L32" s="13">
+        <v>1</v>
+      </c>
+      <c r="M32" s="13">
         <v>1</v>
       </c>
       <c r="AL32" s="1">

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7A0691-1E2A-4100-801E-B30A41D298F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C427D946-A775-4771-A27D-AA1F93850762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="142">
   <si>
     <t>Mecz 1</t>
   </si>
@@ -450,6 +450,15 @@
   </si>
   <si>
     <t>Hiszpania</t>
+  </si>
+  <si>
+    <t>Chorwacja - Albania</t>
+  </si>
+  <si>
+    <t>Niemcy - Węgry</t>
+  </si>
+  <si>
+    <t>Szkocja - Szwajcaria</t>
   </si>
 </sst>
 </file>
@@ -545,7 +554,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -575,6 +584,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -794,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -813,7 +823,10 @@
     <col min="11" max="11" width="19.85546875" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" customWidth="1"/>
     <col min="13" max="13" width="19.28515625" customWidth="1"/>
-    <col min="14" max="38" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="38" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -966,9 +979,15 @@
       <c r="M2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -2017,9 +2036,15 @@
       <c r="M21" s="13">
         <v>1</v>
       </c>
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15">
+        <v>1</v>
+      </c>
       <c r="AL21" s="1">
         <f t="shared" ref="AL21:AL32" si="0">SUM(B21:AK21)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2062,9 +2087,15 @@
       <c r="M22" s="13">
         <v>0</v>
       </c>
+      <c r="N22" s="15">
+        <v>1</v>
+      </c>
+      <c r="O22" s="15">
+        <v>3</v>
+      </c>
       <c r="AL22" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2107,9 +2138,15 @@
       <c r="M23" s="13">
         <v>1</v>
       </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+      <c r="O23" s="15">
+        <v>1</v>
+      </c>
       <c r="AL23" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2152,9 +2189,15 @@
       <c r="M24" s="13">
         <v>1</v>
       </c>
+      <c r="N24" s="15">
+        <v>0</v>
+      </c>
+      <c r="O24" s="15">
+        <v>1</v>
+      </c>
       <c r="AL24" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,9 +2240,15 @@
       <c r="M25" s="13">
         <v>1</v>
       </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+      <c r="O25" s="15">
+        <v>3</v>
+      </c>
       <c r="AL25" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2242,9 +2291,15 @@
       <c r="M26" s="13">
         <v>3</v>
       </c>
+      <c r="N26" s="15">
+        <v>0</v>
+      </c>
+      <c r="O26" s="15">
+        <v>1</v>
+      </c>
       <c r="AL26" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2287,9 +2342,15 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
+      <c r="N27" s="15">
+        <v>0</v>
+      </c>
+      <c r="O27" s="15">
+        <v>1</v>
+      </c>
       <c r="AL27" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2332,9 +2393,15 @@
       <c r="M28" s="13">
         <v>1</v>
       </c>
+      <c r="N28" s="15">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15">
+        <v>1</v>
+      </c>
       <c r="AL28" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2377,9 +2444,15 @@
       <c r="M29" s="13">
         <v>1</v>
       </c>
+      <c r="N29" s="15">
+        <v>1</v>
+      </c>
+      <c r="O29" s="15">
+        <v>1</v>
+      </c>
       <c r="AL29" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2422,9 +2495,15 @@
       <c r="M30" s="13">
         <v>3</v>
       </c>
+      <c r="N30" s="15">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15">
+        <v>1</v>
+      </c>
       <c r="AL30" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2467,9 +2546,15 @@
       <c r="M31" s="13">
         <v>3</v>
       </c>
+      <c r="N31" s="15">
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
+        <v>1</v>
+      </c>
       <c r="AL31" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2512,9 +2597,15 @@
       <c r="M32" s="13">
         <v>1</v>
       </c>
+      <c r="N32" s="15">
+        <v>0</v>
+      </c>
+      <c r="O32" s="15">
+        <v>1</v>
+      </c>
       <c r="AL32" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C427D946-A775-4771-A27D-AA1F93850762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932CC823-B73C-4638-AA0F-12268773DC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2036,11 +2036,14 @@
       <c r="M21" s="13">
         <v>1</v>
       </c>
-      <c r="N21" s="15">
-        <v>0</v>
-      </c>
-      <c r="O21" s="15">
-        <v>1</v>
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <v>1</v>
+      </c>
+      <c r="P21" s="15">
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <f t="shared" ref="AL21:AL32" si="0">SUM(B21:AK21)</f>
@@ -2087,11 +2090,14 @@
       <c r="M22" s="13">
         <v>0</v>
       </c>
-      <c r="N22" s="15">
-        <v>1</v>
-      </c>
-      <c r="O22" s="15">
+      <c r="N22" s="13">
+        <v>1</v>
+      </c>
+      <c r="O22" s="13">
         <v>3</v>
+      </c>
+      <c r="P22" s="15">
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <f t="shared" si="0"/>
@@ -2138,15 +2144,18 @@
       <c r="M23" s="13">
         <v>1</v>
       </c>
-      <c r="N23" s="15">
-        <v>0</v>
-      </c>
-      <c r="O23" s="15">
-        <v>1</v>
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>1</v>
+      </c>
+      <c r="P23" s="15">
+        <v>3</v>
       </c>
       <c r="AL23" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2189,11 +2198,14 @@
       <c r="M24" s="13">
         <v>1</v>
       </c>
-      <c r="N24" s="15">
-        <v>0</v>
-      </c>
-      <c r="O24" s="15">
-        <v>1</v>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <v>1</v>
+      </c>
+      <c r="P24" s="15">
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
         <f t="shared" si="0"/>
@@ -2240,11 +2252,14 @@
       <c r="M25" s="13">
         <v>1</v>
       </c>
-      <c r="N25" s="15">
-        <v>0</v>
-      </c>
-      <c r="O25" s="15">
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
         <v>3</v>
+      </c>
+      <c r="P25" s="15">
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <f t="shared" si="0"/>
@@ -2291,15 +2306,18 @@
       <c r="M26" s="13">
         <v>3</v>
       </c>
-      <c r="N26" s="15">
-        <v>0</v>
-      </c>
-      <c r="O26" s="15">
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
+      <c r="O26" s="13">
+        <v>1</v>
+      </c>
+      <c r="P26" s="15">
         <v>1</v>
       </c>
       <c r="AL26" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2342,11 +2360,14 @@
       <c r="M27" s="13">
         <v>1</v>
       </c>
-      <c r="N27" s="15">
-        <v>0</v>
-      </c>
-      <c r="O27" s="15">
-        <v>1</v>
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <v>1</v>
+      </c>
+      <c r="P27" s="15">
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <f t="shared" si="0"/>
@@ -2393,11 +2414,14 @@
       <c r="M28" s="13">
         <v>1</v>
       </c>
-      <c r="N28" s="15">
-        <v>0</v>
-      </c>
-      <c r="O28" s="15">
-        <v>1</v>
+      <c r="N28" s="13">
+        <v>0</v>
+      </c>
+      <c r="O28" s="13">
+        <v>1</v>
+      </c>
+      <c r="P28" s="15">
+        <v>0</v>
       </c>
       <c r="AL28" s="1">
         <f t="shared" si="0"/>
@@ -2444,11 +2468,14 @@
       <c r="M29" s="13">
         <v>1</v>
       </c>
-      <c r="N29" s="15">
-        <v>1</v>
-      </c>
-      <c r="O29" s="15">
-        <v>1</v>
+      <c r="N29" s="13">
+        <v>1</v>
+      </c>
+      <c r="O29" s="13">
+        <v>1</v>
+      </c>
+      <c r="P29" s="15">
+        <v>0</v>
       </c>
       <c r="AL29" s="1">
         <f t="shared" si="0"/>
@@ -2495,11 +2522,14 @@
       <c r="M30" s="13">
         <v>3</v>
       </c>
-      <c r="N30" s="15">
-        <v>0</v>
-      </c>
-      <c r="O30" s="15">
-        <v>1</v>
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+      <c r="O30" s="13">
+        <v>1</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
         <f t="shared" si="0"/>
@@ -2546,11 +2576,14 @@
       <c r="M31" s="13">
         <v>3</v>
       </c>
-      <c r="N31" s="15">
-        <v>0</v>
-      </c>
-      <c r="O31" s="15">
-        <v>1</v>
+      <c r="N31" s="13">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13">
+        <v>1</v>
+      </c>
+      <c r="P31" s="15">
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
         <f t="shared" si="0"/>
@@ -2597,15 +2630,18 @@
       <c r="M32" s="13">
         <v>1</v>
       </c>
-      <c r="N32" s="15">
-        <v>0</v>
-      </c>
-      <c r="O32" s="15">
-        <v>1</v>
+      <c r="N32" s="13">
+        <v>0</v>
+      </c>
+      <c r="O32" s="13">
+        <v>1</v>
+      </c>
+      <c r="P32" s="15">
+        <v>3</v>
       </c>
       <c r="AL32" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932CC823-B73C-4638-AA0F-12268773DC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC32072-3A49-485D-9C3D-659BE106A1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="143">
   <si>
     <t>Mecz 1</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>Szkocja - Szwajcaria</t>
+  </si>
+  <si>
+    <t>Słowenia - Serbia</t>
   </si>
 </sst>
 </file>
@@ -554,7 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -584,7 +587,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -804,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -826,7 +828,8 @@
     <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="38" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="38" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -988,7 +991,9 @@
       <c r="P2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -2042,7 +2047,7 @@
       <c r="O21" s="13">
         <v>1</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="13">
         <v>0</v>
       </c>
       <c r="AL21" s="1">
@@ -2096,7 +2101,7 @@
       <c r="O22" s="13">
         <v>3</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="13">
         <v>0</v>
       </c>
       <c r="AL22" s="1">
@@ -2150,7 +2155,7 @@
       <c r="O23" s="13">
         <v>1</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="13">
         <v>3</v>
       </c>
       <c r="AL23" s="1">
@@ -2204,7 +2209,7 @@
       <c r="O24" s="13">
         <v>1</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="13">
         <v>0</v>
       </c>
       <c r="AL24" s="1">
@@ -2258,7 +2263,7 @@
       <c r="O25" s="13">
         <v>3</v>
       </c>
-      <c r="P25" s="15">
+      <c r="P25" s="13">
         <v>0</v>
       </c>
       <c r="AL25" s="1">
@@ -2312,7 +2317,7 @@
       <c r="O26" s="13">
         <v>1</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="13">
         <v>1</v>
       </c>
       <c r="AL26" s="1">
@@ -2366,7 +2371,7 @@
       <c r="O27" s="13">
         <v>1</v>
       </c>
-      <c r="P27" s="15">
+      <c r="P27" s="13">
         <v>0</v>
       </c>
       <c r="AL27" s="1">
@@ -2420,7 +2425,7 @@
       <c r="O28" s="13">
         <v>1</v>
       </c>
-      <c r="P28" s="15">
+      <c r="P28" s="13">
         <v>0</v>
       </c>
       <c r="AL28" s="1">
@@ -2474,7 +2479,7 @@
       <c r="O29" s="13">
         <v>1</v>
       </c>
-      <c r="P29" s="15">
+      <c r="P29" s="13">
         <v>0</v>
       </c>
       <c r="AL29" s="1">
@@ -2528,7 +2533,7 @@
       <c r="O30" s="13">
         <v>1</v>
       </c>
-      <c r="P30" s="15">
+      <c r="P30" s="13">
         <v>0</v>
       </c>
       <c r="AL30" s="1">
@@ -2582,7 +2587,7 @@
       <c r="O31" s="13">
         <v>1</v>
       </c>
-      <c r="P31" s="15">
+      <c r="P31" s="13">
         <v>0</v>
       </c>
       <c r="AL31" s="1">
@@ -2636,7 +2641,7 @@
       <c r="O32" s="13">
         <v>1</v>
       </c>
-      <c r="P32" s="15">
+      <c r="P32" s="13">
         <v>3</v>
       </c>
       <c r="AL32" s="1">

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC32072-3A49-485D-9C3D-659BE106A1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219A4E7E-C365-4A6F-A4C5-B62DDF705ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -587,6 +587,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -806,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2050,6 +2051,12 @@
       <c r="P21" s="13">
         <v>0</v>
       </c>
+      <c r="Q21" s="15">
+        <v>0</v>
+      </c>
+      <c r="R21" s="15">
+        <v>0</v>
+      </c>
       <c r="AL21" s="1">
         <f t="shared" ref="AL21:AL32" si="0">SUM(B21:AK21)</f>
         <v>8</v>
@@ -2104,9 +2111,15 @@
       <c r="P22" s="13">
         <v>0</v>
       </c>
+      <c r="Q22" s="15">
+        <v>3</v>
+      </c>
+      <c r="R22" s="15">
+        <v>0</v>
+      </c>
       <c r="AL22" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2158,6 +2171,12 @@
       <c r="P23" s="13">
         <v>3</v>
       </c>
+      <c r="Q23" s="15">
+        <v>0</v>
+      </c>
+      <c r="R23" s="15">
+        <v>0</v>
+      </c>
       <c r="AL23" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2212,9 +2231,15 @@
       <c r="P24" s="13">
         <v>0</v>
       </c>
+      <c r="Q24" s="15">
+        <v>3</v>
+      </c>
+      <c r="R24" s="15">
+        <v>0</v>
+      </c>
       <c r="AL24" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2266,6 +2291,12 @@
       <c r="P25" s="13">
         <v>0</v>
       </c>
+      <c r="Q25" s="15">
+        <v>0</v>
+      </c>
+      <c r="R25" s="15">
+        <v>0</v>
+      </c>
       <c r="AL25" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2320,9 +2351,15 @@
       <c r="P26" s="13">
         <v>1</v>
       </c>
+      <c r="Q26" s="15">
+        <v>1</v>
+      </c>
+      <c r="R26" s="15">
+        <v>0</v>
+      </c>
       <c r="AL26" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2374,6 +2411,12 @@
       <c r="P27" s="13">
         <v>0</v>
       </c>
+      <c r="Q27" s="15">
+        <v>0</v>
+      </c>
+      <c r="R27" s="15">
+        <v>0</v>
+      </c>
       <c r="AL27" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2428,6 +2471,12 @@
       <c r="P28" s="13">
         <v>0</v>
       </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>0</v>
+      </c>
       <c r="AL28" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2482,6 +2531,12 @@
       <c r="P29" s="13">
         <v>0</v>
       </c>
+      <c r="Q29" s="15">
+        <v>0</v>
+      </c>
+      <c r="R29" s="15">
+        <v>0</v>
+      </c>
       <c r="AL29" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2536,9 +2591,15 @@
       <c r="P30" s="13">
         <v>0</v>
       </c>
+      <c r="Q30" s="15">
+        <v>3</v>
+      </c>
+      <c r="R30" s="15">
+        <v>0</v>
+      </c>
       <c r="AL30" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2590,9 +2651,15 @@
       <c r="P31" s="13">
         <v>0</v>
       </c>
+      <c r="Q31" s="15">
+        <v>0</v>
+      </c>
+      <c r="R31" s="15">
+        <v>3</v>
+      </c>
       <c r="AL31" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2643,6 +2710,12 @@
       </c>
       <c r="P32" s="13">
         <v>3</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>0</v>
+      </c>
+      <c r="R32" s="15">
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
         <f t="shared" si="0"/>

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219A4E7E-C365-4A6F-A4C5-B62DDF705ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25988559-4FAD-4144-8B03-AAD2FB822921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="148">
   <si>
     <t>Mecz 1</t>
   </si>
@@ -462,13 +462,28 @@
   </si>
   <si>
     <t>Słowenia - Serbia</t>
+  </si>
+  <si>
+    <t>Dania - Anglia</t>
+  </si>
+  <si>
+    <t>Hiszpania - Włochy</t>
+  </si>
+  <si>
+    <t>Słowacja - Ukraina</t>
+  </si>
+  <si>
+    <t>Polska - Austria</t>
+  </si>
+  <si>
+    <t>Holandia - Francja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +505,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="8">
@@ -557,7 +579,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -587,6 +609,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -807,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -830,7 +853,12 @@
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="38" width="8.7109375" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="38" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -995,11 +1023,21 @@
       <c r="Q2" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
+      <c r="R2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>147</v>
+      </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
@@ -2051,15 +2089,24 @@
       <c r="P21" s="13">
         <v>0</v>
       </c>
-      <c r="Q21" s="15">
-        <v>0</v>
-      </c>
-      <c r="R21" s="15">
+      <c r="Q21" s="13">
+        <v>0</v>
+      </c>
+      <c r="R21" s="13">
+        <v>0</v>
+      </c>
+      <c r="S21" s="16">
+        <v>1</v>
+      </c>
+      <c r="T21" s="16">
+        <v>0</v>
+      </c>
+      <c r="U21" s="16">
         <v>0</v>
       </c>
       <c r="AL21" s="1">
         <f t="shared" ref="AL21:AL32" si="0">SUM(B21:AK21)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2111,10 +2158,19 @@
       <c r="P22" s="13">
         <v>0</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="13">
         <v>3</v>
       </c>
-      <c r="R22" s="15">
+      <c r="R22" s="13">
+        <v>0</v>
+      </c>
+      <c r="S22" s="16">
+        <v>0</v>
+      </c>
+      <c r="T22" s="16">
+        <v>0</v>
+      </c>
+      <c r="U22" s="16">
         <v>0</v>
       </c>
       <c r="AL22" s="1">
@@ -2171,10 +2227,19 @@
       <c r="P23" s="13">
         <v>3</v>
       </c>
-      <c r="Q23" s="15">
-        <v>0</v>
-      </c>
-      <c r="R23" s="15">
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="13">
+        <v>0</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0</v>
+      </c>
+      <c r="T23" s="16">
+        <v>0</v>
+      </c>
+      <c r="U23" s="16">
         <v>0</v>
       </c>
       <c r="AL23" s="1">
@@ -2231,15 +2296,24 @@
       <c r="P24" s="13">
         <v>0</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="13">
         <v>3</v>
       </c>
-      <c r="R24" s="15">
+      <c r="R24" s="13">
+        <v>0</v>
+      </c>
+      <c r="S24" s="16">
+        <v>1</v>
+      </c>
+      <c r="T24" s="16">
+        <v>0</v>
+      </c>
+      <c r="U24" s="16">
         <v>0</v>
       </c>
       <c r="AL24" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2291,15 +2365,24 @@
       <c r="P25" s="13">
         <v>0</v>
       </c>
-      <c r="Q25" s="15">
-        <v>0</v>
-      </c>
-      <c r="R25" s="15">
-        <v>0</v>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="16">
+        <v>1</v>
+      </c>
+      <c r="T25" s="16">
+        <v>0</v>
+      </c>
+      <c r="U25" s="16">
+        <v>1</v>
       </c>
       <c r="AL25" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2351,10 +2434,19 @@
       <c r="P26" s="13">
         <v>1</v>
       </c>
-      <c r="Q26" s="15">
-        <v>1</v>
-      </c>
-      <c r="R26" s="15">
+      <c r="Q26" s="13">
+        <v>1</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0</v>
+      </c>
+      <c r="S26" s="16">
+        <v>0</v>
+      </c>
+      <c r="T26" s="16">
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
         <v>0</v>
       </c>
       <c r="AL26" s="1">
@@ -2411,15 +2503,24 @@
       <c r="P27" s="13">
         <v>0</v>
       </c>
-      <c r="Q27" s="15">
-        <v>0</v>
-      </c>
-      <c r="R27" s="15">
-        <v>0</v>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="16">
+        <v>1</v>
+      </c>
+      <c r="T27" s="16">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16">
+        <v>1</v>
       </c>
       <c r="AL27" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2471,15 +2572,24 @@
       <c r="P28" s="13">
         <v>0</v>
       </c>
-      <c r="Q28" s="15">
-        <v>0</v>
-      </c>
-      <c r="R28" s="15">
+      <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0</v>
+      </c>
+      <c r="S28" s="16">
+        <v>1</v>
+      </c>
+      <c r="T28" s="16">
+        <v>1</v>
+      </c>
+      <c r="U28" s="16">
         <v>0</v>
       </c>
       <c r="AL28" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2531,15 +2641,24 @@
       <c r="P29" s="13">
         <v>0</v>
       </c>
-      <c r="Q29" s="15">
-        <v>0</v>
-      </c>
-      <c r="R29" s="15">
+      <c r="Q29" s="13">
+        <v>0</v>
+      </c>
+      <c r="R29" s="13">
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <v>1</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29">
         <v>0</v>
       </c>
       <c r="AL29" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2591,15 +2710,24 @@
       <c r="P30" s="13">
         <v>0</v>
       </c>
-      <c r="Q30" s="15">
+      <c r="Q30" s="13">
         <v>3</v>
       </c>
-      <c r="R30" s="15">
+      <c r="R30" s="13">
+        <v>0</v>
+      </c>
+      <c r="S30" s="16">
+        <v>3</v>
+      </c>
+      <c r="T30" s="16">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16">
         <v>0</v>
       </c>
       <c r="AL30" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2651,15 +2779,24 @@
       <c r="P31" s="13">
         <v>0</v>
       </c>
-      <c r="Q31" s="15">
-        <v>0</v>
-      </c>
-      <c r="R31" s="15">
+      <c r="Q31" s="13">
+        <v>0</v>
+      </c>
+      <c r="R31" s="13">
         <v>3</v>
+      </c>
+      <c r="S31" s="16">
+        <v>1</v>
+      </c>
+      <c r="T31" s="16">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2711,15 +2848,24 @@
       <c r="P32" s="13">
         <v>3</v>
       </c>
-      <c r="Q32" s="15">
-        <v>0</v>
-      </c>
-      <c r="R32" s="15">
+      <c r="Q32" s="13">
+        <v>0</v>
+      </c>
+      <c r="R32" s="13">
+        <v>0</v>
+      </c>
+      <c r="S32" s="16">
+        <v>1</v>
+      </c>
+      <c r="T32" s="16">
+        <v>0</v>
+      </c>
+      <c r="U32" s="16">
         <v>0</v>
       </c>
       <c r="AL32" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3829,6 +3975,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25988559-4FAD-4144-8B03-AAD2FB822921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBADC215-8349-40AE-9C9F-F3864C933594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -831,7 +831,7 @@
   <dimension ref="A1:AL1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2095,13 +2095,16 @@
       <c r="R21" s="13">
         <v>0</v>
       </c>
-      <c r="S21" s="16">
-        <v>1</v>
-      </c>
-      <c r="T21" s="16">
-        <v>0</v>
-      </c>
-      <c r="U21" s="16">
+      <c r="S21" s="13">
+        <v>1</v>
+      </c>
+      <c r="T21" s="13">
+        <v>0</v>
+      </c>
+      <c r="U21" s="13">
+        <v>0</v>
+      </c>
+      <c r="V21" s="16">
         <v>0</v>
       </c>
       <c r="AL21" s="1">
@@ -2164,13 +2167,16 @@
       <c r="R22" s="13">
         <v>0</v>
       </c>
-      <c r="S22" s="16">
-        <v>0</v>
-      </c>
-      <c r="T22" s="16">
-        <v>0</v>
-      </c>
-      <c r="U22" s="16">
+      <c r="S22" s="13">
+        <v>0</v>
+      </c>
+      <c r="T22" s="13">
+        <v>0</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0</v>
+      </c>
+      <c r="V22" s="16">
         <v>0</v>
       </c>
       <c r="AL22" s="1">
@@ -2233,13 +2239,16 @@
       <c r="R23" s="13">
         <v>0</v>
       </c>
-      <c r="S23" s="16">
-        <v>0</v>
-      </c>
-      <c r="T23" s="16">
-        <v>0</v>
-      </c>
-      <c r="U23" s="16">
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23" s="16">
         <v>0</v>
       </c>
       <c r="AL23" s="1">
@@ -2302,13 +2311,16 @@
       <c r="R24" s="13">
         <v>0</v>
       </c>
-      <c r="S24" s="16">
-        <v>1</v>
-      </c>
-      <c r="T24" s="16">
-        <v>0</v>
-      </c>
-      <c r="U24" s="16">
+      <c r="S24" s="13">
+        <v>1</v>
+      </c>
+      <c r="T24" s="13">
+        <v>0</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0</v>
+      </c>
+      <c r="V24" s="16">
         <v>0</v>
       </c>
       <c r="AL24" s="1">
@@ -2371,14 +2383,17 @@
       <c r="R25" s="13">
         <v>0</v>
       </c>
-      <c r="S25" s="16">
-        <v>1</v>
-      </c>
-      <c r="T25" s="16">
-        <v>0</v>
-      </c>
-      <c r="U25" s="16">
-        <v>1</v>
+      <c r="S25" s="13">
+        <v>1</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>1</v>
+      </c>
+      <c r="V25" s="16">
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <f t="shared" si="0"/>
@@ -2440,18 +2455,21 @@
       <c r="R26" s="13">
         <v>0</v>
       </c>
-      <c r="S26" s="16">
-        <v>0</v>
-      </c>
-      <c r="T26" s="16">
-        <v>0</v>
-      </c>
-      <c r="U26" s="16">
-        <v>0</v>
+      <c r="S26" s="13">
+        <v>0</v>
+      </c>
+      <c r="T26" s="13">
+        <v>0</v>
+      </c>
+      <c r="U26" s="13">
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <v>1</v>
       </c>
       <c r="AL26" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2509,14 +2527,17 @@
       <c r="R27" s="13">
         <v>0</v>
       </c>
-      <c r="S27" s="16">
-        <v>1</v>
-      </c>
-      <c r="T27" s="16">
-        <v>0</v>
-      </c>
-      <c r="U27" s="16">
-        <v>1</v>
+      <c r="S27" s="13">
+        <v>1</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <v>1</v>
+      </c>
+      <c r="V27" s="16">
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <f t="shared" si="0"/>
@@ -2578,13 +2599,16 @@
       <c r="R28" s="13">
         <v>0</v>
       </c>
-      <c r="S28" s="16">
-        <v>1</v>
-      </c>
-      <c r="T28" s="16">
-        <v>1</v>
-      </c>
-      <c r="U28" s="16">
+      <c r="S28" s="13">
+        <v>1</v>
+      </c>
+      <c r="T28" s="13">
+        <v>1</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0</v>
+      </c>
+      <c r="V28" s="16">
         <v>0</v>
       </c>
       <c r="AL28" s="1">
@@ -2647,13 +2671,16 @@
       <c r="R29" s="13">
         <v>0</v>
       </c>
-      <c r="S29" s="16">
-        <v>1</v>
-      </c>
-      <c r="T29" s="16">
+      <c r="S29" s="13">
+        <v>1</v>
+      </c>
+      <c r="T29" s="13">
         <v>0</v>
       </c>
       <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>0</v>
       </c>
       <c r="AL29" s="1">
@@ -2716,13 +2743,16 @@
       <c r="R30" s="13">
         <v>0</v>
       </c>
-      <c r="S30" s="16">
+      <c r="S30" s="13">
         <v>3</v>
       </c>
-      <c r="T30" s="16">
-        <v>0</v>
-      </c>
-      <c r="U30" s="16">
+      <c r="T30" s="13">
+        <v>0</v>
+      </c>
+      <c r="U30" s="13">
+        <v>0</v>
+      </c>
+      <c r="V30" s="16">
         <v>0</v>
       </c>
       <c r="AL30" s="1">
@@ -2785,13 +2815,16 @@
       <c r="R31" s="13">
         <v>3</v>
       </c>
-      <c r="S31" s="16">
-        <v>1</v>
-      </c>
-      <c r="T31" s="16">
+      <c r="S31" s="13">
+        <v>1</v>
+      </c>
+      <c r="T31" s="13">
         <v>1</v>
       </c>
       <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31" s="16">
         <v>0</v>
       </c>
       <c r="AL31" s="1">
@@ -2854,18 +2887,21 @@
       <c r="R32" s="13">
         <v>0</v>
       </c>
-      <c r="S32" s="16">
-        <v>1</v>
-      </c>
-      <c r="T32" s="16">
-        <v>0</v>
-      </c>
-      <c r="U32" s="16">
-        <v>0</v>
+      <c r="S32" s="13">
+        <v>1</v>
+      </c>
+      <c r="T32" s="13">
+        <v>0</v>
+      </c>
+      <c r="U32" s="13">
+        <v>0</v>
+      </c>
+      <c r="V32" s="16">
+        <v>1</v>
       </c>
       <c r="AL32" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBADC215-8349-40AE-9C9F-F3864C933594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1EECFD-B1E5-462C-AC99-4150B3AAE19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="151">
   <si>
     <t>Mecz 1</t>
   </si>
@@ -477,6 +477,15 @@
   </si>
   <si>
     <t>Holandia - Francja</t>
+  </si>
+  <si>
+    <t>Gruzja - Czechy</t>
+  </si>
+  <si>
+    <t>Turcja - Portugalia</t>
+  </si>
+  <si>
+    <t>Belgia - Rumunia</t>
   </si>
 </sst>
 </file>
@@ -830,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -858,7 +867,10 @@
     <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="38" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="38" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -1038,9 +1050,15 @@
       <c r="V2" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="W2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
@@ -2104,12 +2122,21 @@
       <c r="U21" s="13">
         <v>0</v>
       </c>
-      <c r="V21" s="16">
-        <v>0</v>
+      <c r="V21" s="13">
+        <v>0</v>
+      </c>
+      <c r="W21" s="13">
+        <v>0</v>
+      </c>
+      <c r="X21" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>3</v>
       </c>
       <c r="AL21" s="1">
         <f t="shared" ref="AL21:AL32" si="0">SUM(B21:AK21)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2176,12 +2203,21 @@
       <c r="U22" s="13">
         <v>0</v>
       </c>
-      <c r="V22" s="16">
-        <v>0</v>
+      <c r="V22" s="13">
+        <v>0</v>
+      </c>
+      <c r="W22" s="13">
+        <v>0</v>
+      </c>
+      <c r="X22" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="16">
+        <v>3</v>
       </c>
       <c r="AL22" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2248,12 +2284,21 @@
       <c r="U23" s="13">
         <v>0</v>
       </c>
-      <c r="V23" s="16">
-        <v>0</v>
+      <c r="V23" s="13">
+        <v>0</v>
+      </c>
+      <c r="W23" s="13">
+        <v>0</v>
+      </c>
+      <c r="X23" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>1</v>
       </c>
       <c r="AL23" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2320,12 +2365,21 @@
       <c r="U24" s="13">
         <v>0</v>
       </c>
-      <c r="V24" s="16">
-        <v>0</v>
+      <c r="V24" s="13">
+        <v>0</v>
+      </c>
+      <c r="W24" s="13">
+        <v>1</v>
+      </c>
+      <c r="X24" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="16">
+        <v>3</v>
       </c>
       <c r="AL24" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2392,12 +2446,21 @@
       <c r="U25" s="13">
         <v>1</v>
       </c>
-      <c r="V25" s="16">
-        <v>0</v>
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
+      <c r="W25" s="13">
+        <v>0</v>
+      </c>
+      <c r="X25" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="16">
+        <v>3</v>
       </c>
       <c r="AL25" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2464,12 +2527,21 @@
       <c r="U26" s="13">
         <v>0</v>
       </c>
-      <c r="V26" s="16">
-        <v>1</v>
+      <c r="V26" s="13">
+        <v>1</v>
+      </c>
+      <c r="W26" s="13">
+        <v>3</v>
+      </c>
+      <c r="X26" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="16">
+        <v>3</v>
       </c>
       <c r="AL26" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2536,12 +2608,21 @@
       <c r="U27" s="13">
         <v>1</v>
       </c>
-      <c r="V27" s="16">
-        <v>0</v>
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+      <c r="X27" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="16">
+        <v>3</v>
       </c>
       <c r="AL27" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2608,12 +2689,21 @@
       <c r="U28" s="13">
         <v>0</v>
       </c>
-      <c r="V28" s="16">
-        <v>0</v>
+      <c r="V28" s="13">
+        <v>0</v>
+      </c>
+      <c r="W28" s="13">
+        <v>0</v>
+      </c>
+      <c r="X28" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="16">
+        <v>3</v>
       </c>
       <c r="AL28" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2683,9 +2773,18 @@
       <c r="V29">
         <v>0</v>
       </c>
+      <c r="W29">
+        <v>3</v>
+      </c>
+      <c r="X29" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>0</v>
+      </c>
       <c r="AL29" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2752,12 +2851,21 @@
       <c r="U30" s="13">
         <v>0</v>
       </c>
-      <c r="V30" s="16">
-        <v>0</v>
+      <c r="V30" s="13">
+        <v>0</v>
+      </c>
+      <c r="W30" s="13">
+        <v>1</v>
+      </c>
+      <c r="X30" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>3</v>
       </c>
       <c r="AL30" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2824,12 +2932,21 @@
       <c r="U31">
         <v>0</v>
       </c>
-      <c r="V31" s="16">
-        <v>0</v>
+      <c r="V31" s="13">
+        <v>0</v>
+      </c>
+      <c r="W31" s="13">
+        <v>0</v>
+      </c>
+      <c r="X31" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>1</v>
       </c>
       <c r="AL31" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2896,12 +3013,21 @@
       <c r="U32" s="13">
         <v>0</v>
       </c>
-      <c r="V32" s="16">
+      <c r="V32" s="13">
+        <v>1</v>
+      </c>
+      <c r="W32" s="13">
+        <v>0</v>
+      </c>
+      <c r="X32" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="16">
         <v>1</v>
       </c>
       <c r="AL32" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1EECFD-B1E5-462C-AC99-4150B3AAE19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8A8E03-9F40-43A8-A4FD-CDE6F3FC0346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="155">
   <si>
     <t>Mecz 1</t>
   </si>
@@ -486,6 +486,18 @@
   </si>
   <si>
     <t>Belgia - Rumunia</t>
+  </si>
+  <si>
+    <t>Szwajcaria - Niemcy</t>
+  </si>
+  <si>
+    <t>Szkocja - Węgry</t>
+  </si>
+  <si>
+    <t>Albania - Hiszpania</t>
+  </si>
+  <si>
+    <t>Chorwacja - Włochy</t>
   </si>
 </sst>
 </file>
@@ -839,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -870,7 +882,11 @@
     <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="38" width="8.7109375" customWidth="1"/>
+    <col min="26" max="26" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="38" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -1059,10 +1075,18 @@
       <c r="Y2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="Z2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
@@ -2128,15 +2152,27 @@
       <c r="W21" s="13">
         <v>0</v>
       </c>
-      <c r="X21" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="16">
+      <c r="X21" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="13">
         <v>3</v>
+      </c>
+      <c r="Z21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
       </c>
       <c r="AL21" s="1">
         <f t="shared" ref="AL21:AL32" si="0">SUM(B21:AK21)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2209,15 +2245,27 @@
       <c r="W22" s="13">
         <v>0</v>
       </c>
-      <c r="X22" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="16">
+      <c r="X22" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="13">
         <v>3</v>
+      </c>
+      <c r="Z22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>3</v>
+      </c>
+      <c r="AB22">
+        <v>1</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
       </c>
       <c r="AL22" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2290,15 +2338,27 @@
       <c r="W23" s="13">
         <v>0</v>
       </c>
-      <c r="X23" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="16">
+      <c r="X23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="16">
         <v>1</v>
       </c>
       <c r="AL23" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2371,15 +2431,27 @@
       <c r="W24" s="13">
         <v>1</v>
       </c>
-      <c r="X24" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="16">
+      <c r="X24" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="13">
         <v>3</v>
+      </c>
+      <c r="Z24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>0</v>
       </c>
       <c r="AL24" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2452,15 +2524,27 @@
       <c r="W25" s="13">
         <v>0</v>
       </c>
-      <c r="X25" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="16">
+      <c r="X25" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="13">
         <v>3</v>
+      </c>
+      <c r="Z25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="16">
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,15 +2617,27 @@
       <c r="W26" s="13">
         <v>3</v>
       </c>
-      <c r="X26" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="16">
+      <c r="X26" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC26">
         <v>3</v>
       </c>
       <c r="AL26" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2614,15 +2710,27 @@
       <c r="W27" s="13">
         <v>0</v>
       </c>
-      <c r="X27" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="16">
+      <c r="X27" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="13">
         <v>3</v>
+      </c>
+      <c r="Z27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="16">
+        <v>0</v>
       </c>
       <c r="AL27" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2695,15 +2803,27 @@
       <c r="W28" s="13">
         <v>0</v>
       </c>
-      <c r="X28" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="16">
+      <c r="X28" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC28">
         <v>3</v>
       </c>
       <c r="AL28" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2776,15 +2896,27 @@
       <c r="W29">
         <v>3</v>
       </c>
-      <c r="X29" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="16">
+      <c r="X29" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="16">
         <v>0</v>
       </c>
       <c r="AL29" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2857,15 +2989,27 @@
       <c r="W30" s="13">
         <v>1</v>
       </c>
-      <c r="X30" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="16">
+      <c r="X30" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="13">
         <v>3</v>
+      </c>
+      <c r="Z30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="16">
+        <v>0</v>
       </c>
       <c r="AL30" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2938,15 +3082,27 @@
       <c r="W31" s="13">
         <v>0</v>
       </c>
-      <c r="X31" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="16">
+      <c r="X31" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="16">
         <v>1</v>
       </c>
       <c r="AL31" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3019,15 +3175,27 @@
       <c r="W32" s="13">
         <v>0</v>
       </c>
-      <c r="X32" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="16">
-        <v>1</v>
+      <c r="X32" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>3</v>
       </c>
       <c r="AL32" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8A8E03-9F40-43A8-A4FD-CDE6F3FC0346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CEAA80-BFDA-4F5F-83E5-113A086667A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="161">
   <si>
     <t>Mecz 1</t>
   </si>
@@ -498,6 +498,24 @@
   </si>
   <si>
     <t>Chorwacja - Włochy</t>
+  </si>
+  <si>
+    <t>Holandia - Austria</t>
+  </si>
+  <si>
+    <t>Francja - Polska</t>
+  </si>
+  <si>
+    <t>Anglia - Słowenia</t>
+  </si>
+  <si>
+    <t>Dania - Serbia</t>
+  </si>
+  <si>
+    <t>Słowacja - Rumunia</t>
+  </si>
+  <si>
+    <t>Belgia - Ukraina</t>
   </si>
 </sst>
 </file>
@@ -851,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD35" sqref="AD35"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -886,7 +904,14 @@
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="38" width="8.7109375" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
@@ -1087,12 +1112,24 @@
       <c r="AC2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="AD2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
@@ -2158,7 +2195,7 @@
       <c r="Y21" s="13">
         <v>3</v>
       </c>
-      <c r="Z21" s="16">
+      <c r="Z21" s="13">
         <v>0</v>
       </c>
       <c r="AA21">
@@ -2168,6 +2205,24 @@
         <v>1</v>
       </c>
       <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
         <v>0</v>
       </c>
       <c r="AL21" s="1">
@@ -2251,7 +2306,7 @@
       <c r="Y22" s="13">
         <v>3</v>
       </c>
-      <c r="Z22" s="16">
+      <c r="Z22" s="13">
         <v>0</v>
       </c>
       <c r="AA22">
@@ -2261,6 +2316,24 @@
         <v>1</v>
       </c>
       <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
         <v>0</v>
       </c>
       <c r="AL22" s="1">
@@ -2344,21 +2417,39 @@
       <c r="Y23" s="13">
         <v>1</v>
       </c>
-      <c r="Z23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="16">
-        <v>1</v>
+      <c r="Z23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="16">
+        <v>3</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
       <c r="AL23" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2437,21 +2528,39 @@
       <c r="Y24" s="13">
         <v>3</v>
       </c>
-      <c r="Z24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="16">
+      <c r="Z24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI24">
         <v>0</v>
       </c>
       <c r="AL24" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,16 +2639,34 @@
       <c r="Y25" s="13">
         <v>3</v>
       </c>
-      <c r="Z25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="16">
+      <c r="Z25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="13">
         <v>3</v>
       </c>
-      <c r="AB25" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="16">
+      <c r="AB25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI25">
         <v>0</v>
       </c>
       <c r="AL25" s="1">
@@ -2623,21 +2750,39 @@
       <c r="Y26" s="13">
         <v>3</v>
       </c>
-      <c r="Z26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="16">
+      <c r="Z26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="13">
         <v>0</v>
       </c>
       <c r="AC26">
         <v>3</v>
       </c>
+      <c r="AD26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="16">
+        <v>3</v>
+      </c>
+      <c r="AH26" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
       <c r="AL26" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2716,21 +2861,39 @@
       <c r="Y27" s="13">
         <v>3</v>
       </c>
-      <c r="Z27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="16">
+      <c r="Z27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="16">
+        <v>3</v>
+      </c>
+      <c r="AI27">
         <v>0</v>
       </c>
       <c r="AL27" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2809,21 +2972,39 @@
       <c r="Y28" s="13">
         <v>3</v>
       </c>
-      <c r="Z28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="16">
+      <c r="Z28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="13">
         <v>1</v>
       </c>
       <c r="AC28">
         <v>3</v>
       </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
       <c r="AL28" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2902,21 +3083,39 @@
       <c r="Y29" s="13">
         <v>0</v>
       </c>
-      <c r="Z29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="16">
+      <c r="Z29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="16">
+        <v>3</v>
+      </c>
+      <c r="AI29">
         <v>0</v>
       </c>
       <c r="AL29" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2995,21 +3194,39 @@
       <c r="Y30" s="13">
         <v>3</v>
       </c>
-      <c r="Z30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="16">
+      <c r="Z30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="16">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI30">
         <v>0</v>
       </c>
       <c r="AL30" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3088,21 +3305,39 @@
       <c r="Y31" s="13">
         <v>1</v>
       </c>
-      <c r="Z31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="16">
-        <v>1</v>
+      <c r="Z31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="16">
+        <v>3</v>
+      </c>
+      <c r="AH31" s="16">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="16">
+        <v>0</v>
       </c>
       <c r="AL31" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3181,21 +3416,39 @@
       <c r="Y32" s="13">
         <v>1</v>
       </c>
-      <c r="Z32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="16">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="16">
+      <c r="Z32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="13">
         <v>3</v>
+      </c>
+      <c r="AD32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="16">
+        <v>3</v>
+      </c>
+      <c r="AI32" s="16">
+        <v>0</v>
       </c>
       <c r="AL32" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CEAA80-BFDA-4F5F-83E5-113A086667A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1771AE5-E1AA-4F02-BB95-BF56097802FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -649,7 +649,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -869,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK21" sqref="AK21"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2429,19 +2428,19 @@
       <c r="AC23" s="13">
         <v>1</v>
       </c>
-      <c r="AD23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="16">
+      <c r="AD23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="13">
         <v>3</v>
       </c>
       <c r="AI23">
@@ -2540,19 +2539,19 @@
       <c r="AC24" s="13">
         <v>0</v>
       </c>
-      <c r="AD24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="16">
+      <c r="AD24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="13">
         <v>1</v>
       </c>
       <c r="AI24">
@@ -2651,19 +2650,19 @@
       <c r="AC25" s="13">
         <v>0</v>
       </c>
-      <c r="AD25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="16">
+      <c r="AD25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="13">
         <v>0</v>
       </c>
       <c r="AI25">
@@ -2762,19 +2761,19 @@
       <c r="AC26">
         <v>3</v>
       </c>
-      <c r="AD26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="16">
+      <c r="AD26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="13">
         <v>3</v>
       </c>
-      <c r="AH26" s="16">
+      <c r="AH26" s="13">
         <v>1</v>
       </c>
       <c r="AI26">
@@ -2873,19 +2872,19 @@
       <c r="AC27" s="13">
         <v>0</v>
       </c>
-      <c r="AD27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="16">
+      <c r="AD27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="13">
         <v>3</v>
       </c>
       <c r="AI27">
@@ -2987,16 +2986,16 @@
       <c r="AD28">
         <v>0</v>
       </c>
-      <c r="AE28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="16">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="16">
+      <c r="AE28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="13">
         <v>0</v>
       </c>
       <c r="AI28">
@@ -3095,19 +3094,19 @@
       <c r="AC29" s="13">
         <v>0</v>
       </c>
-      <c r="AD29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="16">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="16">
+      <c r="AD29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="13">
         <v>3</v>
       </c>
       <c r="AI29">
@@ -3206,19 +3205,19 @@
       <c r="AC30" s="13">
         <v>0</v>
       </c>
-      <c r="AD30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="16">
-        <v>1</v>
-      </c>
-      <c r="AH30" s="16">
+      <c r="AD30" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="13">
         <v>0</v>
       </c>
       <c r="AI30">
@@ -3226,7 +3225,7 @@
       </c>
       <c r="AL30" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3317,22 +3316,22 @@
       <c r="AC31" s="13">
         <v>1</v>
       </c>
-      <c r="AD31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="16">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="16">
+      <c r="AD31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="13">
         <v>3</v>
       </c>
-      <c r="AH31" s="16">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="16">
+      <c r="AH31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="13">
         <v>0</v>
       </c>
       <c r="AL31" s="1">
@@ -3428,22 +3427,22 @@
       <c r="AC32" s="13">
         <v>3</v>
       </c>
-      <c r="AD32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="16">
+      <c r="AD32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="13">
         <v>3</v>
       </c>
-      <c r="AI32" s="16">
+      <c r="AI32" s="13">
         <v>0</v>
       </c>
       <c r="AL32" s="1">

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1771AE5-E1AA-4F02-BB95-BF56097802FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89101E2-9DC7-4672-8A9D-9556453C5A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="192">
   <si>
     <t>Mecz 1</t>
   </si>
@@ -371,9 +371,6 @@
     <t>PKT 36</t>
   </si>
   <si>
-    <t xml:space="preserve">SUMA PKT </t>
-  </si>
-  <si>
     <t>Mikołaj Zielonka</t>
   </si>
   <si>
@@ -516,13 +513,109 @@
   </si>
   <si>
     <t>Belgia - Ukraina</t>
+  </si>
+  <si>
+    <t>Mecz 37</t>
+  </si>
+  <si>
+    <t>Mecz 38</t>
+  </si>
+  <si>
+    <t>Mecz 39</t>
+  </si>
+  <si>
+    <t>Mecz 40</t>
+  </si>
+  <si>
+    <t>Mecz 41</t>
+  </si>
+  <si>
+    <t>Mecz 42</t>
+  </si>
+  <si>
+    <t>Mecz 43</t>
+  </si>
+  <si>
+    <t>Mecz 44</t>
+  </si>
+  <si>
+    <t>Mecz 45</t>
+  </si>
+  <si>
+    <t>Mecz 46</t>
+  </si>
+  <si>
+    <t>Mecz 47</t>
+  </si>
+  <si>
+    <t>Mecz 48</t>
+  </si>
+  <si>
+    <t>Mecz 49</t>
+  </si>
+  <si>
+    <t>Mecz 50</t>
+  </si>
+  <si>
+    <t>Mecz 51</t>
+  </si>
+  <si>
+    <t>PKT 37</t>
+  </si>
+  <si>
+    <t>PKT 38</t>
+  </si>
+  <si>
+    <t>PKT 39</t>
+  </si>
+  <si>
+    <t>PKT 40</t>
+  </si>
+  <si>
+    <t>PKT 41</t>
+  </si>
+  <si>
+    <t>PKT 42</t>
+  </si>
+  <si>
+    <t>PKT 43</t>
+  </si>
+  <si>
+    <t>PKT 44</t>
+  </si>
+  <si>
+    <t>PKT 45</t>
+  </si>
+  <si>
+    <t>PKT 46</t>
+  </si>
+  <si>
+    <t>PKT 47</t>
+  </si>
+  <si>
+    <t>PKT 48</t>
+  </si>
+  <si>
+    <t>PKT 49</t>
+  </si>
+  <si>
+    <t>PKT 50</t>
+  </si>
+  <si>
+    <t>PKT 51</t>
+  </si>
+  <si>
+    <t>Czechy - Turcja</t>
+  </si>
+  <si>
+    <t>Gruzja - Portugalia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +644,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -618,7 +716,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -649,6 +747,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -866,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL1000"/>
+  <dimension ref="A1:BA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB40" sqref="AB40"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM32" sqref="AM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -909,11 +1008,12 @@
     <col min="33" max="33" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="8.7109375" customWidth="1"/>
+    <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,8 +1122,53 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -1064,75 +1209,79 @@
         <v>48</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="S2" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="W2" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
+      <c r="AJ2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -1198,7 +1347,7 @@
       <c r="AK3" s="4"/>
       <c r="AL3" s="5"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
@@ -1264,7 +1413,7 @@
       <c r="AK4" s="4"/>
       <c r="AL4" s="5"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>57</v>
       </c>
@@ -1330,7 +1479,7 @@
       <c r="AK5" s="4"/>
       <c r="AL5" s="5"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -1396,7 +1545,7 @@
       <c r="AK6" s="4"/>
       <c r="AL6" s="5"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
@@ -1462,7 +1611,7 @@
       <c r="AK7" s="4"/>
       <c r="AL7" s="5"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
@@ -1528,7 +1677,7 @@
       <c r="AK8" s="4"/>
       <c r="AL8" s="5"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -1594,7 +1743,7 @@
       <c r="AK9" s="4"/>
       <c r="AL9" s="5"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1660,7 +1809,7 @@
       <c r="AK10" s="4"/>
       <c r="AL10" s="5"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>68</v>
       </c>
@@ -1726,7 +1875,7 @@
       <c r="AK11" s="4"/>
       <c r="AL11" s="5"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
@@ -1792,7 +1941,7 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="5"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>72</v>
       </c>
@@ -1858,7 +2007,7 @@
       <c r="AK13" s="4"/>
       <c r="AL13" s="5"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
@@ -1924,7 +2073,7 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="5"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1963,7 +2112,7 @@
       <c r="AK15" s="4"/>
       <c r="AL15" s="5"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2002,7 +2151,7 @@
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2115,12 +2264,55 @@
         <v>111</v>
       </c>
       <c r="AL20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM20" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AQ20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AW20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AZ20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA20" s="1"/>
+    </row>
+    <row r="21" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="B21" s="14">
         <v>1</v>
@@ -2224,14 +2416,35 @@
       <c r="AI21">
         <v>0</v>
       </c>
-      <c r="AL21" s="1">
-        <f t="shared" ref="AL21:AL32" si="0">SUM(B21:AK21)</f>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1">
+        <f>SUM(B21:AZ21)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="14">
         <v>0</v>
@@ -2335,14 +2548,35 @@
       <c r="AI22">
         <v>0</v>
       </c>
-      <c r="AL22" s="1">
-        <f t="shared" si="0"/>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1">
+        <f t="shared" ref="BA22:BA32" si="0">SUM(B22:AZ22)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="14">
         <v>1</v>
@@ -2446,14 +2680,35 @@
       <c r="AI23">
         <v>0</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="14">
         <v>1</v>
@@ -2557,12 +2812,33 @@
       <c r="AI24">
         <v>0</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
@@ -2668,12 +2944,33 @@
       <c r="AI25">
         <v>0</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>63</v>
       </c>
@@ -2779,12 +3076,33 @@
       <c r="AI26">
         <v>0</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>65</v>
       </c>
@@ -2890,14 +3208,35 @@
       <c r="AI27">
         <v>0</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" s="14">
         <v>1</v>
@@ -3001,14 +3340,35 @@
       <c r="AI28">
         <v>0</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="14">
         <v>1</v>
@@ -3112,14 +3472,35 @@
       <c r="AI29">
         <v>0</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B30" s="14">
         <v>1</v>
@@ -3223,14 +3604,35 @@
       <c r="AI30">
         <v>0</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AJ30">
+        <v>3</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" s="14">
         <v>1</v>
@@ -3334,14 +3736,35 @@
       <c r="AI31" s="13">
         <v>0</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AJ31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="14">
         <v>1</v>
@@ -3445,16 +3868,37 @@
       <c r="AI32" s="13">
         <v>0</v>
       </c>
-      <c r="AL32" s="1">
+      <c r="AJ32" s="16">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+      <c r="AV32" s="1"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="1"/>
+      <c r="AZ32" s="1"/>
+      <c r="BA32" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3462,57 +3906,57 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3520,10 +3964,10 @@
         <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3531,10 +3975,10 @@
         <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3542,65 +3986,65 @@
         <v>65</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4556,6 +5000,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89101E2-9DC7-4672-8A9D-9556453C5A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1969B8A7-17F3-46E5-8E6C-028D9CC386E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="196">
   <si>
     <t>Mecz 1</t>
   </si>
@@ -609,6 +609,18 @@
   </si>
   <si>
     <t>Gruzja - Portugalia</t>
+  </si>
+  <si>
+    <t>Szwajcaria - Włochy</t>
+  </si>
+  <si>
+    <t>Niemcy - Dania</t>
+  </si>
+  <si>
+    <t>Anglia - Słowacja</t>
+  </si>
+  <si>
+    <t>Hiszpania - Gruzja</t>
   </si>
 </sst>
 </file>
@@ -716,7 +728,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -747,6 +759,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -967,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM32" sqref="AM32"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN25" sqref="AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1023,10 @@
     <col min="35" max="35" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.7109375" customWidth="1"/>
+    <col min="38" max="38" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.25">
@@ -1279,6 +1295,18 @@
       </c>
       <c r="AK2" s="2" t="s">
         <v>191</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
@@ -2422,8 +2450,12 @@
       <c r="AK21">
         <v>0</v>
       </c>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
+      <c r="AL21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="16">
+        <v>0</v>
+      </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
@@ -2554,8 +2586,12 @@
       <c r="AK22">
         <v>0</v>
       </c>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
+      <c r="AL22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="16">
+        <v>1</v>
+      </c>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
       <c r="AP22" s="1"/>
@@ -2571,7 +2607,7 @@
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1">
         <f t="shared" ref="BA22:BA32" si="0">SUM(B22:AZ22)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2686,8 +2722,12 @@
       <c r="AK23">
         <v>0</v>
       </c>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
+      <c r="AL23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="16">
+        <v>1</v>
+      </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
@@ -2703,7 +2743,7 @@
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2818,8 +2858,12 @@
       <c r="AK24">
         <v>0</v>
       </c>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
+      <c r="AL24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="16">
+        <v>1</v>
+      </c>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
       <c r="AP24" s="1"/>
@@ -2835,7 +2879,7 @@
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2950,8 +2994,12 @@
       <c r="AK25">
         <v>0</v>
       </c>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
+      <c r="AL25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="16">
+        <v>3</v>
+      </c>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
       <c r="AP25" s="1"/>
@@ -2967,7 +3015,7 @@
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3082,8 +3130,12 @@
       <c r="AK26">
         <v>0</v>
       </c>
-      <c r="AL26" s="1"/>
-      <c r="AM26" s="1"/>
+      <c r="AL26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="16">
+        <v>1</v>
+      </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
       <c r="AP26" s="1"/>
@@ -3099,7 +3151,7 @@
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3214,8 +3266,12 @@
       <c r="AK27">
         <v>0</v>
       </c>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
+      <c r="AL27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="16">
+        <v>1</v>
+      </c>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
       <c r="AP27" s="1"/>
@@ -3231,7 +3287,7 @@
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3346,8 +3402,12 @@
       <c r="AK28">
         <v>0</v>
       </c>
-      <c r="AL28" s="1"/>
-      <c r="AM28" s="1"/>
+      <c r="AL28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="16">
+        <v>0</v>
+      </c>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
       <c r="AP28" s="1"/>
@@ -3363,7 +3423,7 @@
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3478,8 +3538,12 @@
       <c r="AK29">
         <v>0</v>
       </c>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1"/>
+      <c r="AL29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="16">
+        <v>1</v>
+      </c>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
       <c r="AP29" s="1"/>
@@ -3495,7 +3559,7 @@
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3610,8 +3674,12 @@
       <c r="AK30">
         <v>0</v>
       </c>
-      <c r="AL30" s="1"/>
-      <c r="AM30" s="1"/>
+      <c r="AL30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="16">
+        <v>3</v>
+      </c>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
       <c r="AP30" s="1"/>
@@ -3627,7 +3695,7 @@
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3736,14 +3804,18 @@
       <c r="AI31" s="13">
         <v>0</v>
       </c>
-      <c r="AJ31" s="16">
+      <c r="AJ31" s="13">
         <v>0</v>
       </c>
       <c r="AK31">
         <v>0</v>
       </c>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
+      <c r="AL31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="16">
+        <v>1</v>
+      </c>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
       <c r="AP31" s="1"/>
@@ -3759,7 +3831,7 @@
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3868,14 +3940,18 @@
       <c r="AI32" s="13">
         <v>0</v>
       </c>
-      <c r="AJ32" s="16">
-        <v>1</v>
-      </c>
-      <c r="AK32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
+      <c r="AJ32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="17">
+        <v>1</v>
+      </c>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
@@ -3891,7 +3967,7 @@
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TABELA.xlsx
+++ b/TABELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAMIL\Desktop\GITHUB\euro2024\Euro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1969B8A7-17F3-46E5-8E6C-028D9CC386E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764D1A62-2782-4C2C-B53C-7A8ADD0075A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,8 +759,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -980,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN25" sqref="AN25"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2453,11 +2453,15 @@
       <c r="AL21" s="1">
         <v>0</v>
       </c>
-      <c r="AM21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="17">
+        <v>1</v>
+      </c>
       <c r="AP21" s="1"/>
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
@@ -2471,7 +2475,7 @@
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1">
         <f>SUM(B21:AZ21)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2589,11 +2593,15 @@
       <c r="AL22" s="1">
         <v>1</v>
       </c>
-      <c r="AM22" s="16">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="17">
+        <v>0</v>
+      </c>
       <c r="AP22" s="1"/>
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
@@ -2725,11 +2733,15 @@
       <c r="AL23" s="1">
         <v>0</v>
       </c>
-      <c r="AM23" s="16">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="17">
+        <v>1</v>
+      </c>
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
@@ -2743,7 +2755,7 @@
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2858,14 +2870,18 @@
       <c r="AK24">
         <v>0</v>
       </c>
-      <c r="AL24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="17">
+        <v>1</v>
+      </c>
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
@@ -2879,7 +2895,7 @@
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2994,14 +3010,18 @@
       <c r="AK25">
         <v>0</v>
       </c>
-      <c r="AL25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="16">
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
         <v>3</v>
       </c>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
+      <c r="AN25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="17">
+        <v>1</v>
+      </c>
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
@@ -3015,7 +3035,7 @@
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3130,14 +3150,18 @@
       <c r="AK26">
         <v>0</v>
       </c>
-      <c r="AL26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="16">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="1"/>
-      <c r="AO26" s="1"/>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="17">
+        <v>1</v>
+      </c>
       <c r="AP26" s="1"/>
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
@@ -3151,7 +3175,7 @@
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3266,14 +3290,18 @@
       <c r="AK27">
         <v>0</v>
       </c>
-      <c r="AL27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="16">
-        <v>1</v>
-      </c>
-      <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="17">
+        <v>1</v>
+      </c>
       <c r="AP27" s="1"/>
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
@@ -3287,7 +3315,7 @@
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3405,11 +3433,15 @@
       <c r="AL28" s="1">
         <v>1</v>
       </c>
-      <c r="AM28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="1"/>
-      <c r="AO28" s="1"/>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="17">
+        <v>1</v>
+      </c>
       <c r="AP28" s="1"/>
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
@@ -3423,7 +3455,7 @@
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3541,11 +3573,15 @@
       <c r="AL29" s="1">
         <v>0</v>
       </c>
-      <c r="AM29" s="16">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="17">
+        <v>1</v>
+      </c>
       <c r="AP29" s="1"/>
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
@@ -3559,7 +3595,7 @@
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3677,11 +3713,15 @@
       <c r="AL30" s="1">
         <v>0</v>
       </c>
-      <c r="AM30" s="16">
+      <c r="AM30">
         <v>3</v>
       </c>
-      <c r="AN30" s="1"/>
-      <c r="AO30" s="1"/>
+      <c r="AN30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO30" s="17">
+        <v>1</v>
+      </c>
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
@@ -3695,7 +3735,7 @@
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3813,11 +3853,15 @@
       <c r="AL31" s="1">
         <v>1</v>
       </c>
-      <c r="AM31" s="16">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO31" s="17">
+        <v>1</v>
+      </c>
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
@@ -3831,7 +3875,7 @@
       <c r="AZ31" s="1"/>
       <c r="BA31" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3946,14 +3990,18 @@
       <c r="AK32" s="13">
         <v>0</v>
       </c>
-      <c r="AL32" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="17">
-        <v>1</v>
-      </c>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
+      <c r="AL32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="16">
+        <v>1</v>
+      </c>
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
@@ -3967,7 +4015,7 @@
       <c r="AZ32" s="1"/>
       <c r="BA32" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
